--- a/share/doc/validation/Scenarios/EndocrineValidation.xlsx
+++ b/share/doc/validation/Scenarios/EndocrineValidation.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\BioGears\core\share\doc\validation\Scenarios\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="-210" windowWidth="20010" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="-216" windowWidth="20016" windowHeight="7992" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$B$1:$K$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -168,7 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -941,7 +946,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -976,7 +981,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1190,27 +1195,27 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="1.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="29" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="29"/>
-    <col min="12" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="1.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="1.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="29" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="29" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="29"/>
+    <col min="12" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>5</v>
       </c>
@@ -1245,7 +1250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>5</v>
       </c>
@@ -1280,7 +1285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
@@ -1313,7 +1318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
@@ -1349,39 +1354,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
@@ -1403,14 +1408,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
@@ -1421,7 +1426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
@@ -1432,7 +1437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -1443,7 +1448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>12</v>
       </c>
@@ -1454,7 +1459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
@@ -1474,34 +1479,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="26" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" style="26" customWidth="1"/>
     <col min="14" max="14" width="23" style="26" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" style="26" customWidth="1"/>
+    <col min="15" max="15" width="19.88671875" style="26" customWidth="1"/>
     <col min="16" max="16" width="23" style="26" customWidth="1"/>
     <col min="17" max="17" width="3" customWidth="1"/>
-    <col min="18" max="18" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>26</v>
@@ -1524,7 +1529,7 @@
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1577,7 +1582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -1630,7 +1635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1683,7 +1688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1736,7 +1741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1789,7 +1794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1842,7 +1847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1901,21 +1906,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D00DDCF912707249810263345C6FBCAE" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05fc12c866532ec63d2052ef81b63530">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="711b5f35d88f7f6ebfe284b0f73f4393">
     <xsd:element name="properties">
@@ -2029,17 +2019,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6320210A-C44C-4B82-8349-5A58CB3B5A77}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{000C402D-5B8F-44E9-B6EC-AD906C5241AB}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2053,17 +2059,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{000C402D-5B8F-44E9-B6EC-AD906C5241AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6320210A-C44C-4B82-8349-5A58CB3B5A77}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>